--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachVonNam/rpt_BaoCao_KHNam_DonVi.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachVonNam/rpt_BaoCao_KHNam_DonVi.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="__dv__">#REF!</definedName>
     <definedName name="__Items__">Sheet1!$A$10:$M$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$5:$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -638,6 +638,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -661,30 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,57 +994,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="25"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="26"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1057,72 +1057,72 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="38" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="43"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="45" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="41" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="22" t="s">
         <v>6</v>
       </c>
@@ -1132,9 +1132,9 @@
       <c r="H7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="23" t="s">
         <v>10</v>
       </c>
@@ -1728,30 +1728,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I29:M29"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1760,11 +1741,30 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D2:J2"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="I26:M26"/>
   </mergeCells>
   <pageMargins left="1.0788690476190477" right="0.74226190476190479" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
@@ -1775,7 +1775,7 @@
     <brk id="42" max="18" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="45" man="1"/>
+    <brk id="15" max="41" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
